--- a/2020/JPDC_MCO/BalandinTask.xlsx
+++ b/2020/JPDC_MCO/BalandinTask.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgeniy.kozinov\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\ExaMinPapers\2020\JPDC_MCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0119EAFD-BAE7-4A9F-B177-633780844FF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63135BF-93C3-442E-8164-DC2835605870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9760FECD-7462-4577-912F-8738FF2DE417}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -342,9 +342,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,16 +357,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,6 +1351,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Displacement</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1413,6 +1471,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deformation </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2402,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5564117-B83F-4C94-927E-F4298C59DD16}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="153" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2486,22 +2600,22 @@
       <c r="L4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>1</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>1</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>1</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>1</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2524,25 +2638,25 @@
       <c r="F5" s="1">
         <v>48</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>1</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>1</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>48</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>48</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <v>48</v>
       </c>
     </row>
@@ -2570,29 +2684,29 @@
         <f>F4*F5</f>
         <v>240</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <f>N4*N5</f>
         <v>1</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <f>O4*O5</f>
         <v>1</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <f>P4*P5</f>
         <v>48</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <f>Q4*Q5</f>
         <v>48</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="11">
         <f>R4*R5</f>
         <v>240</v>
       </c>
@@ -2619,23 +2733,23 @@
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="13" t="s">
+      <c r="M7" s="20"/>
+      <c r="N7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2659,23 +2773,23 @@
         <v>21</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="12">
+      <c r="M8" s="20"/>
+      <c r="N8" s="11">
         <v>703802</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>13120</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <v>403</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>237</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="11">
         <v>116</v>
       </c>
     </row>
@@ -2698,23 +2812,23 @@
       <c r="F9" s="1">
         <v>116</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="14">
+      <c r="M9" s="20"/>
+      <c r="N9" s="13">
         <v>1.46228113894983</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <v>1.4460809999999999</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>1.3839360000000001</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="13">
         <v>1.8803460000000001</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="13">
         <v>1.3914280000000001</v>
       </c>
     </row>
@@ -2737,23 +2851,23 @@
       <c r="F10" s="3">
         <v>1.3914280000000001</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="14">
+      <c r="M10" s="20"/>
+      <c r="N10" s="13">
         <v>501.02932935843199</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <v>499.43127299999998</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="13">
         <v>500.45756999999998</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="13">
         <v>498.725662</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="13">
         <v>500.394139</v>
       </c>
     </row>
@@ -2776,52 +2890,52 @@
       <c r="F11" s="3">
         <v>500.394139</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="12" t="s">
+      <c r="M11" s="20"/>
+      <c r="N11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <f>$O$8/O8</f>
         <v>1</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="16">
         <f t="shared" ref="P11:R11" si="0">$O$8/P8</f>
         <v>32.555831265508687</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="16">
         <f t="shared" si="0"/>
         <v>55.358649789029535</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="16">
         <f t="shared" si="0"/>
         <v>113.10344827586206</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="31.2" customHeight="1" thickBot="1">
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="12">
+      <c r="M12" s="20"/>
+      <c r="N12" s="11">
         <f>$N$8/N8</f>
         <v>1</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="16">
         <f>$N$8/O8</f>
         <v>53.643445121951217</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="16">
         <f>$N$8/P8</f>
         <v>1746.4069478908189</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="16">
         <f>$N$8/Q8</f>
         <v>2969.6286919831223</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="16">
         <f>$N$8/R8</f>
         <v>6067.2586206896549</v>
       </c>
